--- a/csv/model/CIMS_DCC/formula_CIMS_DCC_AT.xlsx
+++ b/csv/model/CIMS_DCC/formula_CIMS_DCC_AT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_DCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8087B74-D1B7-4C3C-92A7-4BD7B676A0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C2C32F-8668-420C-843D-FEF53AAF91FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1084651-9EDE-4805-9C8F-E3DD1DD9EBE8}"/>
+    <workbookView xWindow="41850" yWindow="4965" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B9AD95-76A1-4056-AE4A-9E8C5493EFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,21 +655,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEF6559-A0D3-4FB1-8311-35680C7A685D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21450C9B-22E3-4F44-98E7-82A6B4841439}">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -743,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -802,7 +802,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -861,7 +861,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -920,7 +920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -979,7 +979,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>17.009699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>15.8757</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>54000000</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>81</v>
       </c>
